--- a/Tables/reg_results/meanvardeps_period.xlsx
+++ b/Tables/reg_results/meanvardeps_period.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t/>
   </si>
@@ -490,330 +490,6 @@
   </si>
   <si>
     <t>[0.000]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>(1)-(2)</t>
-  </si>
-  <si>
-    <t>-0.000***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.853***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.159***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.082***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.057***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.006***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>(1)-(3)</t>
-  </si>
-  <si>
-    <t>-0.004***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-1.944***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-2.899***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.523***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.091***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.219***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>(1)-(4)</t>
-  </si>
-  <si>
-    <t>-0.002***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-4.120***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-3.774***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-1.307***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.105***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.247***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>(2)-(3)</t>
-  </si>
-  <si>
-    <t>-0.004***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-1.091***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-2.740***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.605***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.033***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.225***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>(2)-(4)</t>
-  </si>
-  <si>
-    <t>-0.001***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-3.267***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-3.615***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-1.389***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.048***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.253***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>(3)-(4)</t>
-  </si>
-  <si>
-    <t>0.003***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-2.176***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.875***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.784***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.014***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>-0.028***</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t/>
@@ -866,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:I18"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -897,24 +573,6 @@
       <c r="I1" t="s">
         <v>144</v>
       </c>
-      <c r="J1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K1" t="s">
-        <v>180</v>
-      </c>
-      <c r="L1" t="s">
-        <v>198</v>
-      </c>
-      <c r="M1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N1" t="s">
-        <v>234</v>
-      </c>
-      <c r="O1" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -944,24 +602,6 @@
       <c r="I2" t="s">
         <v>145</v>
       </c>
-      <c r="J2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K2" t="s">
-        <v>181</v>
-      </c>
-      <c r="L2" t="s">
-        <v>199</v>
-      </c>
-      <c r="M2" t="s">
-        <v>217</v>
-      </c>
-      <c r="N2" t="s">
-        <v>235</v>
-      </c>
-      <c r="O2" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -991,24 +631,6 @@
       <c r="I3" t="s">
         <v>146</v>
       </c>
-      <c r="J3" t="s">
-        <v>164</v>
-      </c>
-      <c r="K3" t="s">
-        <v>182</v>
-      </c>
-      <c r="L3" t="s">
-        <v>200</v>
-      </c>
-      <c r="M3" t="s">
-        <v>218</v>
-      </c>
-      <c r="N3" t="s">
-        <v>236</v>
-      </c>
-      <c r="O3" t="s">
-        <v>254</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1038,24 +660,6 @@
       <c r="I4" t="s">
         <v>147</v>
       </c>
-      <c r="J4" t="s">
-        <v>165</v>
-      </c>
-      <c r="K4" t="s">
-        <v>183</v>
-      </c>
-      <c r="L4" t="s">
-        <v>201</v>
-      </c>
-      <c r="M4" t="s">
-        <v>219</v>
-      </c>
-      <c r="N4" t="s">
-        <v>237</v>
-      </c>
-      <c r="O4" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1085,24 +689,6 @@
       <c r="I5" t="s">
         <v>148</v>
       </c>
-      <c r="J5" t="s">
-        <v>166</v>
-      </c>
-      <c r="K5" t="s">
-        <v>184</v>
-      </c>
-      <c r="L5" t="s">
-        <v>202</v>
-      </c>
-      <c r="M5" t="s">
-        <v>220</v>
-      </c>
-      <c r="N5" t="s">
-        <v>238</v>
-      </c>
-      <c r="O5" t="s">
-        <v>256</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1132,24 +718,6 @@
       <c r="I6" t="s">
         <v>149</v>
       </c>
-      <c r="J6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K6" t="s">
-        <v>185</v>
-      </c>
-      <c r="L6" t="s">
-        <v>203</v>
-      </c>
-      <c r="M6" t="s">
-        <v>221</v>
-      </c>
-      <c r="N6" t="s">
-        <v>239</v>
-      </c>
-      <c r="O6" t="s">
-        <v>257</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1179,24 +747,6 @@
       <c r="I7" t="s">
         <v>150</v>
       </c>
-      <c r="J7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M7" t="s">
-        <v>222</v>
-      </c>
-      <c r="N7" t="s">
-        <v>240</v>
-      </c>
-      <c r="O7" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1226,24 +776,6 @@
       <c r="I8" t="s">
         <v>151</v>
       </c>
-      <c r="J8" t="s">
-        <v>169</v>
-      </c>
-      <c r="K8" t="s">
-        <v>187</v>
-      </c>
-      <c r="L8" t="s">
-        <v>205</v>
-      </c>
-      <c r="M8" t="s">
-        <v>223</v>
-      </c>
-      <c r="N8" t="s">
-        <v>241</v>
-      </c>
-      <c r="O8" t="s">
-        <v>259</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1273,24 +805,6 @@
       <c r="I9" t="s">
         <v>152</v>
       </c>
-      <c r="J9" t="s">
-        <v>170</v>
-      </c>
-      <c r="K9" t="s">
-        <v>188</v>
-      </c>
-      <c r="L9" t="s">
-        <v>206</v>
-      </c>
-      <c r="M9" t="s">
-        <v>224</v>
-      </c>
-      <c r="N9" t="s">
-        <v>242</v>
-      </c>
-      <c r="O9" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1320,24 +834,6 @@
       <c r="I10" t="s">
         <v>153</v>
       </c>
-      <c r="J10" t="s">
-        <v>171</v>
-      </c>
-      <c r="K10" t="s">
-        <v>189</v>
-      </c>
-      <c r="L10" t="s">
-        <v>207</v>
-      </c>
-      <c r="M10" t="s">
-        <v>225</v>
-      </c>
-      <c r="N10" t="s">
-        <v>243</v>
-      </c>
-      <c r="O10" t="s">
-        <v>261</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1367,24 +863,6 @@
       <c r="I11" t="s">
         <v>154</v>
       </c>
-      <c r="J11" t="s">
-        <v>172</v>
-      </c>
-      <c r="K11" t="s">
-        <v>190</v>
-      </c>
-      <c r="L11" t="s">
-        <v>208</v>
-      </c>
-      <c r="M11" t="s">
-        <v>226</v>
-      </c>
-      <c r="N11" t="s">
-        <v>244</v>
-      </c>
-      <c r="O11" t="s">
-        <v>262</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1414,24 +892,6 @@
       <c r="I12" t="s">
         <v>155</v>
       </c>
-      <c r="J12" t="s">
-        <v>173</v>
-      </c>
-      <c r="K12" t="s">
-        <v>191</v>
-      </c>
-      <c r="L12" t="s">
-        <v>209</v>
-      </c>
-      <c r="M12" t="s">
-        <v>227</v>
-      </c>
-      <c r="N12" t="s">
-        <v>245</v>
-      </c>
-      <c r="O12" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1461,24 +921,6 @@
       <c r="I13" t="s">
         <v>156</v>
       </c>
-      <c r="J13" t="s">
-        <v>174</v>
-      </c>
-      <c r="K13" t="s">
-        <v>192</v>
-      </c>
-      <c r="L13" t="s">
-        <v>210</v>
-      </c>
-      <c r="M13" t="s">
-        <v>228</v>
-      </c>
-      <c r="N13" t="s">
-        <v>246</v>
-      </c>
-      <c r="O13" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1508,24 +950,6 @@
       <c r="I14" t="s">
         <v>157</v>
       </c>
-      <c r="J14" t="s">
-        <v>175</v>
-      </c>
-      <c r="K14" t="s">
-        <v>193</v>
-      </c>
-      <c r="L14" t="s">
-        <v>211</v>
-      </c>
-      <c r="M14" t="s">
-        <v>229</v>
-      </c>
-      <c r="N14" t="s">
-        <v>247</v>
-      </c>
-      <c r="O14" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1555,24 +979,6 @@
       <c r="I15" t="s">
         <v>158</v>
       </c>
-      <c r="J15" t="s">
-        <v>176</v>
-      </c>
-      <c r="K15" t="s">
-        <v>194</v>
-      </c>
-      <c r="L15" t="s">
-        <v>212</v>
-      </c>
-      <c r="M15" t="s">
-        <v>230</v>
-      </c>
-      <c r="N15" t="s">
-        <v>248</v>
-      </c>
-      <c r="O15" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1602,24 +1008,6 @@
       <c r="I16" t="s">
         <v>159</v>
       </c>
-      <c r="J16" t="s">
-        <v>177</v>
-      </c>
-      <c r="K16" t="s">
-        <v>195</v>
-      </c>
-      <c r="L16" t="s">
-        <v>213</v>
-      </c>
-      <c r="M16" t="s">
-        <v>231</v>
-      </c>
-      <c r="N16" t="s">
-        <v>249</v>
-      </c>
-      <c r="O16" t="s">
-        <v>267</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1649,24 +1037,6 @@
       <c r="I17" t="s">
         <v>160</v>
       </c>
-      <c r="J17" t="s">
-        <v>178</v>
-      </c>
-      <c r="K17" t="s">
-        <v>196</v>
-      </c>
-      <c r="L17" t="s">
-        <v>214</v>
-      </c>
-      <c r="M17" t="s">
-        <v>232</v>
-      </c>
-      <c r="N17" t="s">
-        <v>250</v>
-      </c>
-      <c r="O17" t="s">
-        <v>268</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1696,24 +1066,6 @@
       <c r="I18" t="s">
         <v>161</v>
       </c>
-      <c r="J18" t="s">
-        <v>179</v>
-      </c>
-      <c r="K18" t="s">
-        <v>197</v>
-      </c>
-      <c r="L18" t="s">
-        <v>215</v>
-      </c>
-      <c r="M18" t="s">
-        <v>233</v>
-      </c>
-      <c r="N18" t="s">
-        <v>251</v>
-      </c>
-      <c r="O18" t="s">
-        <v>269</v>
-      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/Tables/reg_results/meanvardeps_period.xlsx
+++ b/Tables/reg_results/meanvardeps_period.xlsx
@@ -66,25 +66,25 @@
     <t>N</t>
   </si>
   <si>
-    <t>195500158</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>195500158</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>195500158</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>145242435</t>
+    <t>1.95e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1.95e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1.95e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1.46e+09</t>
   </si>
   <si>
     <t/>
@@ -108,25 +108,25 @@
     <t>Mean/SE</t>
   </si>
   <si>
-    <t>1.513</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>27.464</t>
-  </si>
-  <si>
-    <t>[0.001]</t>
-  </si>
-  <si>
-    <t>3.287</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.551</t>
+    <t>1.515</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>27.581</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>3.290</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>0.550</t>
   </si>
   <si>
     <t>[0.000]</t>
@@ -150,25 +150,25 @@
     <t>N</t>
   </si>
   <si>
-    <t>219986916</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>219986916</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>224385088</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>224385088</t>
+    <t>2.20e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2.20e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2.24e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2.24e+09</t>
   </si>
   <si>
     <t/>
@@ -198,13 +198,13 @@
     <t>[0.000]</t>
   </si>
   <si>
-    <t>29.017</t>
-  </si>
-  <si>
-    <t>[0.001]</t>
-  </si>
-  <si>
-    <t>6.091</t>
+    <t>28.982</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>6.088</t>
   </si>
   <si>
     <t>[0.000]</t>
@@ -234,25 +234,25 @@
     <t>N</t>
   </si>
   <si>
-    <t>281738759</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>281738759</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>286675628</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>286675628</t>
+    <t>2.83e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2.83e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2.87e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2.87e+09</t>
   </si>
   <si>
     <t/>
@@ -276,25 +276,25 @@
     <t>Mean/SE</t>
   </si>
   <si>
-    <t>1.515</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>30.485</t>
-  </si>
-  <si>
-    <t>[0.001]</t>
-  </si>
-  <si>
-    <t>6.727</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.792</t>
+    <t>1.516</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>30.500</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>6.715</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>0.793</t>
   </si>
   <si>
     <t>[0.000]</t>

--- a/Tables/reg_results/meanvardeps_period.xlsx
+++ b/Tables/reg_results/meanvardeps_period.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t/>
   </si>
@@ -66,25 +66,25 @@
     <t>N</t>
   </si>
   <si>
-    <t>1.95e+09</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1.95e+09</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1.95e+09</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1.46e+09</t>
+    <t>2.20e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2.20e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2.24e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2.24e+09</t>
   </si>
   <si>
     <t/>
@@ -102,31 +102,31 @@
     <t>(1)</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
     <t>Mean/SE</t>
   </si>
   <si>
-    <t>1.515</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>27.581</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>3.290</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.550</t>
+    <t>1.519</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>28.982</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>6.088</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>0.773</t>
   </si>
   <si>
     <t>[0.000]</t>
@@ -150,25 +150,25 @@
     <t>N</t>
   </si>
   <si>
-    <t>2.20e+09</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2.20e+09</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2.24e+09</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2.24e+09</t>
+    <t>2.83e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2.83e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2.87e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2.87e+09</t>
   </si>
   <si>
     <t/>
@@ -184,90 +184,6 @@
   </si>
   <si>
     <t>(2)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Mean/SE</t>
-  </si>
-  <si>
-    <t>1.519</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>28.982</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>6.088</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.773</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>2.83e+09</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2.83e+09</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2.87e+09</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2.87e+09</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(3)</t>
   </si>
   <si>
     <t>3</t>
@@ -350,7 +266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:E14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -369,12 +285,6 @@
       <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -392,12 +302,6 @@
       <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -415,12 +319,6 @@
       <c r="E3" t="s">
         <v>58</v>
       </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -438,12 +336,6 @@
       <c r="E4" t="s">
         <v>59</v>
       </c>
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -461,12 +353,6 @@
       <c r="E5" t="s">
         <v>60</v>
       </c>
-      <c r="F5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -484,12 +370,6 @@
       <c r="E6" t="s">
         <v>61</v>
       </c>
-      <c r="F6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -507,12 +387,6 @@
       <c r="E7" t="s">
         <v>62</v>
       </c>
-      <c r="F7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -530,12 +404,6 @@
       <c r="E8" t="s">
         <v>63</v>
       </c>
-      <c r="F8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -553,12 +421,6 @@
       <c r="E9" t="s">
         <v>64</v>
       </c>
-      <c r="F9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -576,12 +438,6 @@
       <c r="E10" t="s">
         <v>65</v>
       </c>
-      <c r="F10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -599,12 +455,6 @@
       <c r="E11" t="s">
         <v>66</v>
       </c>
-      <c r="F11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -622,12 +472,6 @@
       <c r="E12" t="s">
         <v>67</v>
       </c>
-      <c r="F12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -645,12 +489,6 @@
       <c r="E13" t="s">
         <v>68</v>
       </c>
-      <c r="F13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -668,12 +506,6 @@
       <c r="E14" t="s">
         <v>69</v>
       </c>
-      <c r="F14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" t="s">
-        <v>97</v>
-      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/Tables/reg_results/meanvardeps_period.xlsx
+++ b/Tables/reg_results/meanvardeps_period.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t/>
   </si>
@@ -48,6 +48,12 @@
     <t/>
   </si>
   <si>
+    <t>casado</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>The value displayed for t-tests are the differences in the means across the groups.</t>
   </si>
   <si>
@@ -90,6 +96,12 @@
     <t/>
   </si>
   <si>
+    <t>1.68e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -132,6 +144,12 @@
     <t>[0.000]</t>
   </si>
   <si>
+    <t>0.536</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -174,6 +192,12 @@
     <t/>
   </si>
   <si>
+    <t>2.21e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -211,6 +235,12 @@
   </si>
   <si>
     <t>0.793</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>0.538</t>
   </si>
   <si>
     <t>[0.000]</t>
@@ -266,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -274,16 +304,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">
@@ -291,16 +321,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -308,16 +338,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -325,16 +355,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -342,16 +372,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -359,16 +389,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -376,16 +406,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -393,16 +423,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -410,16 +440,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -427,16 +457,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -444,16 +474,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -461,16 +491,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -478,16 +508,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -495,16 +525,50 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/reg_results/meanvardeps_period.xlsx
+++ b/Tables/reg_results/meanvardeps_period.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,47 +13,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="80" uniqueCount="33">
   <si>
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
     <t>sex</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>eda</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>anios_esc</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>t_tra</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>casado</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>The value displayed for t-tests are the differences in the means across the groups.</t>
   </si>
   <si>
@@ -63,54 +45,18 @@
     <t>***, **, and * indicate significance at the 1, 5, and 10 percent critical level.</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>2.20e+09</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>2.20e+09</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>2.24e+09</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>2.24e+09</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>1.68e+09</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>(1)</t>
   </si>
   <si>
@@ -129,136 +75,49 @@
     <t>28.982</t>
   </si>
   <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
     <t>6.088</t>
   </si>
   <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
     <t>0.773</t>
   </si>
   <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
     <t>0.536</t>
   </si>
   <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>2.83e+09</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>2.83e+09</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>2.87e+09</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>2.87e+09</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>2.21e+09</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>(2)</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Mean/SE</t>
-  </si>
-  <si>
     <t>1.516</t>
   </si>
   <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
     <t>30.500</t>
   </si>
   <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
     <t>6.715</t>
   </si>
   <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
     <t>0.793</t>
   </si>
   <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
     <t>0.538</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -295,8 +154,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -304,271 +166,271 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
